--- a/StructureDefinition-source-of-report.xlsx
+++ b/StructureDefinition-source-of-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-09-07T08:24:04-04:00</t>
+    <t>2021-10-06T18:59:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Represents where initial information about the monitoree’s exposure or illness was obtained from. This field is read-only.</t>
+    <t>Represents where initial information about the monitoree’s exposure or illness was obtained from.</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/StructureDefinition-source-of-report.xlsx
+++ b/StructureDefinition-source-of-report.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-10-06T18:59:21-05:00</t>
+    <t>2021-12-01T10:26:21-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
